--- a/Vocabulary export.xlsx
+++ b/Vocabulary export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\egyetem\3.felev\háló\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{826BD351-B14F-4668-BF50-9B04DE642050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2405D969-F24C-4D78-9B2F-832A615D2753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{76FC21C3-B3FB-423B-9ED9-94F3A81A98CA}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1140">
   <si>
     <t>Egy kilobájt több mint egy kibibájt.</t>
   </si>
@@ -3259,18 +3259,12 @@
     <t>Az azonosítás mező prioritási illetve megbízhatósági információkat tartalmaz.</t>
   </si>
   <si>
-    <t>H (azt jelzi, hogy az adott darab melyik datagramhoz tartozik)</t>
-  </si>
-  <si>
     <t>Az azonosítás mező (pl. IP fejlécben) arra szolgál, hogy a darabolt csomagok részeit össze lehessen állítani, nem prioritási vagy megbízhatósági információkat tartalmaz.</t>
   </si>
   <si>
     <t>Egy kilobájt több, mint egy kibibájt.</t>
   </si>
   <si>
-    <t>Hamis</t>
-  </si>
-  <si>
     <t>Egy kilobájt (KB) 1000 bájt, egy kibibájt (KiB) 1024 bájt, tehát 1 KB &lt; 1 KiB, vagyis a kilobájt kevesebb, nem több.</t>
   </si>
   <si>
@@ -3346,9 +3340,6 @@
     <t>A 256-QAM egyetlen jelváltozatással 16 bitet kódol.</t>
   </si>
   <si>
-    <t>H (8)</t>
-  </si>
-  <si>
     <t>A 256-QAM (Quadrature Amplitude Modulation) egy szimbólummal 8 bitet kódol, mert 2^8 = 256.</t>
   </si>
   <si>
@@ -3373,9 +3364,6 @@
     <t>A VLAN fejléc két bájttal hosszabb, mint az Ethernet fejrész.</t>
   </si>
   <si>
-    <t>H (2x2 bájt)</t>
-  </si>
-  <si>
     <t>A VLAN fejléc (802.1Q tag) 4 bájt, tehát a VLAN keret 4 bájttal hosszabb az Ethernet keretnél. A VLAN fejléc nem két bájttal hosszabb.</t>
   </si>
   <si>
@@ -3400,9 +3388,6 @@
     <t>A DNS tulajdonképpen az URL szolgáltatásait teszi a felhasználó számára még produktívabbá.</t>
   </si>
   <si>
-    <t>H (fordítva)</t>
-  </si>
-  <si>
     <t>A DNS (Domain Name System) domain neveket old fel IP címekké, az URL (Uniform Resource Locator) pedig egy címezési séma. A DNS segíti az URL-ek használatát, de nem teszi produktívabbá a szolgáltatásait.</t>
   </si>
   <si>
@@ -3418,9 +3403,6 @@
     <t>A réz alapú 10 gigabites Ethernet a 64B/66B kódolást használja.</t>
   </si>
   <si>
-    <t>H (8B/10B, a másik az üvegé)</t>
-  </si>
-  <si>
     <t>A réz alapú 10 gigabites Ethernet (10GBASE-T) nem a 64B/66B kódolást használja, hanem a DSQ128 (Double Square 128) vagy hasonló modulációt. A 64B/66B kódolást az optikai 10GbE és a 10GBASE-CX4 használja.</t>
   </si>
   <si>
@@ -3451,9 +3433,6 @@
     <t>A szállítási rétegben csomagok továbbítódnak.</t>
   </si>
   <si>
-    <t>H (szegmensek)</t>
-  </si>
-  <si>
     <t>A szállítási rétegben szegmensek (TCP) vagy datagramok (UDP) továbbítódnak. A csomagok (packets) a hálózati réteg egységei.</t>
   </si>
   <si>
@@ -3484,9 +3463,6 @@
     <t>Az Ethernet hálózat NRZ-M kódolást használ.</t>
   </si>
   <si>
-    <t>H (NRZ-L-t)</t>
-  </si>
-  <si>
     <t>Az Ethernet nem használ NRZ-M kódolást. Például a 10BASE-T Manchester kódolást használ, a 100BASE-TX 4B/5B kódolást, a 1000BASE-T pedig komplex modulációt.</t>
   </si>
   <si>
@@ -3497,9 +3473,6 @@
   </si>
   <si>
     <t>A 802.11 szabvány az Ethernetre vonatkozik.</t>
-  </si>
-  <si>
-    <t>H (WLANra)</t>
   </si>
   <si>
     <t>Az IEEE 802.11 szabvány a vezeték nélküli helyi hálózatokra (WLAN) vonatkozik, az Ethernet (vezetékes LAN) az IEEE 802.3 szabvány.</t>
@@ -3573,10 +3546,13 @@
   <queryTableRefresh headersInLastRefresh="0" nextId="5" unboundColumnsRight="1">
     <queryTableFields count="4">
       <queryTableField id="1" name="q" tableColumnId="1"/>
-      <queryTableField id="2" name="a" tableColumnId="2"/>
+      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
       <queryTableField id="3" name="e" tableColumnId="3"/>
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
+    <queryTableDeletedFields count="1">
+      <deletedField name="a"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -3912,10 +3888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001B487F-1ACA-4A9E-BE59-6BBF62710BDA}">
-  <dimension ref="A1:D573"/>
+  <dimension ref="A1:E573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:B573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3926,7 +3902,7 @@
     <col min="4" max="4" width="5.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3940,8 +3916,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3955,8 +3934,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3970,8 +3952,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3985,8 +3970,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4000,8 +3988,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4015,8 +4006,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4030,8 +4024,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4045,8 +4042,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4060,8 +4060,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4075,8 +4078,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4090,8 +4096,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4105,8 +4114,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -4120,8 +4132,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4135,8 +4150,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4150,8 +4168,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -4165,8 +4186,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -4180,8 +4204,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -4195,8 +4222,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -4210,8 +4240,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -4225,8 +4258,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -4240,8 +4276,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -4255,8 +4294,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -4270,8 +4312,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4330,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -4300,8 +4348,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -4315,8 +4366,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -4330,8 +4384,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4345,8 +4402,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -4360,8 +4420,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -4375,8 +4438,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4456,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4405,8 +4474,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4420,8 +4492,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4435,8 +4510,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -4450,8 +4528,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -4465,8 +4546,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -4480,8 +4564,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -4495,8 +4582,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4510,8 +4600,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4525,8 +4618,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -4540,8 +4636,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4555,8 +4654,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -4570,8 +4672,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -4585,8 +4690,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -4600,8 +4708,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -4615,8 +4726,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4630,8 +4744,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -4645,8 +4762,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -4660,8 +4780,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -4675,8 +4798,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -4690,8 +4816,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -4705,8 +4834,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>106</v>
       </c>
@@ -4720,8 +4852,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -4735,8 +4870,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -4750,8 +4888,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -4765,8 +4906,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -4780,8 +4924,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -4795,8 +4942,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -4810,8 +4960,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -4825,8 +4978,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -4840,8 +4996,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>124</v>
       </c>
@@ -4855,8 +5014,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>126</v>
       </c>
@@ -4870,8 +5032,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -4885,8 +5050,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -4900,8 +5068,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -4915,8 +5086,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>134</v>
       </c>
@@ -4930,8 +5104,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -4945,8 +5122,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -4960,8 +5140,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -4975,8 +5158,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -4990,8 +5176,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -5005,8 +5194,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>146</v>
       </c>
@@ -5020,8 +5212,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>148</v>
       </c>
@@ -5035,8 +5230,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -5050,8 +5248,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -5065,8 +5266,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>154</v>
       </c>
@@ -5080,8 +5284,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -5095,8 +5302,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -5110,8 +5320,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -5125,8 +5338,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -5140,8 +5356,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -5155,8 +5374,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -5170,8 +5392,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -5185,8 +5410,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -5200,8 +5428,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -5215,8 +5446,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -5230,8 +5464,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -5245,8 +5482,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -5260,8 +5500,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -5275,8 +5518,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -5290,8 +5536,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -5305,8 +5554,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -5320,8 +5572,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -5335,8 +5590,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -5350,8 +5608,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -5365,8 +5626,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -5380,8 +5644,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -5395,8 +5662,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -5410,8 +5680,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>200</v>
       </c>
@@ -5425,8 +5698,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -5440,8 +5716,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -5455,8 +5734,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -5470,8 +5752,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -5485,8 +5770,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -5500,8 +5788,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -5515,8 +5806,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -5530,8 +5824,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -5545,8 +5842,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -5560,8 +5860,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -5575,8 +5878,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -5590,8 +5896,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -5605,8 +5914,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>226</v>
       </c>
@@ -5620,8 +5932,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -5635,8 +5950,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>230</v>
       </c>
@@ -5650,8 +5968,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -5665,8 +5986,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>234</v>
       </c>
@@ -5680,8 +6004,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>236</v>
       </c>
@@ -5695,8 +6022,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -5710,8 +6040,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>240</v>
       </c>
@@ -5725,8 +6058,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -5740,8 +6076,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>244</v>
       </c>
@@ -5755,8 +6094,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -5770,8 +6112,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>248</v>
       </c>
@@ -5785,8 +6130,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>250</v>
       </c>
@@ -5800,8 +6148,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>252</v>
       </c>
@@ -5815,8 +6166,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -5830,8 +6184,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>256</v>
       </c>
@@ -5845,8 +6202,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>258</v>
       </c>
@@ -5860,8 +6220,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -5875,8 +6238,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>262</v>
       </c>
@@ -5890,8 +6256,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>264</v>
       </c>
@@ -5905,8 +6274,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>266</v>
       </c>
@@ -5920,8 +6292,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>268</v>
       </c>
@@ -5935,8 +6310,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>270</v>
       </c>
@@ -5950,8 +6328,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -5965,8 +6346,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>274</v>
       </c>
@@ -5980,8 +6364,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>276</v>
       </c>
@@ -5995,8 +6382,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>278</v>
       </c>
@@ -6010,8 +6400,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>280</v>
       </c>
@@ -6025,8 +6418,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -6040,8 +6436,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>284</v>
       </c>
@@ -6055,8 +6454,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>286</v>
       </c>
@@ -6070,8 +6472,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>288</v>
       </c>
@@ -6085,8 +6490,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>290</v>
       </c>
@@ -6100,8 +6508,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>292</v>
       </c>
@@ -6115,8 +6526,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>294</v>
       </c>
@@ -6130,8 +6544,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>296</v>
       </c>
@@ -6145,8 +6562,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>298</v>
       </c>
@@ -6160,8 +6580,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>300</v>
       </c>
@@ -6175,8 +6598,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>302</v>
       </c>
@@ -6190,8 +6616,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>304</v>
       </c>
@@ -6205,8 +6634,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>306</v>
       </c>
@@ -6220,8 +6652,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>308</v>
       </c>
@@ -6235,8 +6670,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>310</v>
       </c>
@@ -6250,8 +6688,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>312</v>
       </c>
@@ -6265,8 +6706,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E156" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>314</v>
       </c>
@@ -6280,8 +6724,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>316</v>
       </c>
@@ -6295,8 +6742,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>318</v>
       </c>
@@ -6310,8 +6760,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>320</v>
       </c>
@@ -6325,8 +6778,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>322</v>
       </c>
@@ -6340,8 +6796,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>324</v>
       </c>
@@ -6355,8 +6814,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>326</v>
       </c>
@@ -6370,8 +6832,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>328</v>
       </c>
@@ -6385,8 +6850,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>330</v>
       </c>
@@ -6400,8 +6868,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>332</v>
       </c>
@@ -6415,8 +6886,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>334</v>
       </c>
@@ -6430,8 +6904,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>336</v>
       </c>
@@ -6445,8 +6922,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -6460,8 +6940,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>340</v>
       </c>
@@ -6475,8 +6958,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>342</v>
       </c>
@@ -6490,8 +6976,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>344</v>
       </c>
@@ -6505,8 +6994,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>346</v>
       </c>
@@ -6520,8 +7012,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>348</v>
       </c>
@@ -6535,8 +7030,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>350</v>
       </c>
@@ -6550,8 +7048,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>352</v>
       </c>
@@ -6565,8 +7066,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>354</v>
       </c>
@@ -6580,8 +7084,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>356</v>
       </c>
@@ -6595,8 +7102,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>358</v>
       </c>
@@ -6610,8 +7120,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>360</v>
       </c>
@@ -6625,8 +7138,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>362</v>
       </c>
@@ -6640,8 +7156,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>364</v>
       </c>
@@ -6655,8 +7174,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>366</v>
       </c>
@@ -6670,8 +7192,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>368</v>
       </c>
@@ -6685,8 +7210,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>370</v>
       </c>
@@ -6700,8 +7228,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>372</v>
       </c>
@@ -6715,8 +7246,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>374</v>
       </c>
@@ -6730,8 +7264,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>376</v>
       </c>
@@ -6745,8 +7282,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>378</v>
       </c>
@@ -6760,8 +7300,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>380</v>
       </c>
@@ -6775,8 +7318,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>382</v>
       </c>
@@ -6790,8 +7336,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>384</v>
       </c>
@@ -6805,8 +7354,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>386</v>
       </c>
@@ -6820,8 +7372,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>388</v>
       </c>
@@ -6835,8 +7390,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>390</v>
       </c>
@@ -6850,8 +7408,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>392</v>
       </c>
@@ -6865,8 +7426,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>394</v>
       </c>
@@ -6880,8 +7444,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>396</v>
       </c>
@@ -6895,8 +7462,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>398</v>
       </c>
@@ -6910,8 +7480,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>400</v>
       </c>
@@ -6925,8 +7498,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -6940,8 +7516,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>404</v>
       </c>
@@ -6955,8 +7534,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>406</v>
       </c>
@@ -6970,8 +7552,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>408</v>
       </c>
@@ -6985,8 +7570,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>410</v>
       </c>
@@ -7000,8 +7588,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>412</v>
       </c>
@@ -7015,8 +7606,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E206" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>414</v>
       </c>
@@ -7030,8 +7624,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>416</v>
       </c>
@@ -7045,8 +7642,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>418</v>
       </c>
@@ -7060,8 +7660,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>420</v>
       </c>
@@ -7075,8 +7678,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>422</v>
       </c>
@@ -7090,8 +7696,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>424</v>
       </c>
@@ -7105,8 +7714,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>426</v>
       </c>
@@ -7120,8 +7732,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>428</v>
       </c>
@@ -7135,8 +7750,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>430</v>
       </c>
@@ -7150,8 +7768,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>432</v>
       </c>
@@ -7165,8 +7786,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>434</v>
       </c>
@@ -7180,8 +7804,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>436</v>
       </c>
@@ -7195,8 +7822,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>438</v>
       </c>
@@ -7210,8 +7840,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E219" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>440</v>
       </c>
@@ -7225,8 +7858,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>442</v>
       </c>
@@ -7240,8 +7876,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>444</v>
       </c>
@@ -7255,8 +7894,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>446</v>
       </c>
@@ -7270,8 +7912,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>448</v>
       </c>
@@ -7285,8 +7930,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>450</v>
       </c>
@@ -7300,8 +7948,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>452</v>
       </c>
@@ -7315,8 +7966,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -7330,8 +7984,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>456</v>
       </c>
@@ -7345,8 +8002,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -7360,8 +8020,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E229" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>460</v>
       </c>
@@ -7375,8 +8038,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E230" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>462</v>
       </c>
@@ -7390,8 +8056,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>463</v>
       </c>
@@ -7405,8 +8074,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>465</v>
       </c>
@@ -7420,8 +8092,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>467</v>
       </c>
@@ -7435,8 +8110,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>469</v>
       </c>
@@ -7450,8 +8128,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>471</v>
       </c>
@@ -7465,8 +8146,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>473</v>
       </c>
@@ -7480,8 +8164,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>475</v>
       </c>
@@ -7495,8 +8182,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -7510,8 +8200,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -7525,8 +8218,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>481</v>
       </c>
@@ -7540,8 +8236,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>483</v>
       </c>
@@ -7555,8 +8254,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>485</v>
       </c>
@@ -7570,8 +8272,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>487</v>
       </c>
@@ -7585,8 +8290,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E244" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>489</v>
       </c>
@@ -7600,8 +8308,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>491</v>
       </c>
@@ -7615,8 +8326,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E246" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>493</v>
       </c>
@@ -7630,8 +8344,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E247" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>495</v>
       </c>
@@ -7645,8 +8362,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>497</v>
       </c>
@@ -7660,8 +8380,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>499</v>
       </c>
@@ -7675,8 +8398,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>501</v>
       </c>
@@ -7690,8 +8416,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>503</v>
       </c>
@@ -7705,8 +8434,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>505</v>
       </c>
@@ -7720,8 +8452,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E253" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>507</v>
       </c>
@@ -7735,8 +8470,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>509</v>
       </c>
@@ -7750,8 +8488,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E255" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -7765,8 +8506,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E256" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>513</v>
       </c>
@@ -7780,8 +8524,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>514</v>
       </c>
@@ -7795,8 +8542,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>516</v>
       </c>
@@ -7810,8 +8560,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>518</v>
       </c>
@@ -7825,8 +8578,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>520</v>
       </c>
@@ -7840,8 +8596,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E261" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>522</v>
       </c>
@@ -7855,8 +8614,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>524</v>
       </c>
@@ -7870,8 +8632,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>526</v>
       </c>
@@ -7885,8 +8650,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E264" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>528</v>
       </c>
@@ -7900,8 +8668,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E265" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>530</v>
       </c>
@@ -7915,8 +8686,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>532</v>
       </c>
@@ -7930,8 +8704,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>534</v>
       </c>
@@ -7945,8 +8722,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>536</v>
       </c>
@@ -7960,8 +8740,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>538</v>
       </c>
@@ -7975,8 +8758,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E270" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>540</v>
       </c>
@@ -7990,8 +8776,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>542</v>
       </c>
@@ -8005,8 +8794,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E272" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -8020,8 +8812,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E273" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -8035,8 +8830,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E274" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>548</v>
       </c>
@@ -8050,8 +8848,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -8065,8 +8866,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E276" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>552</v>
       </c>
@@ -8080,8 +8884,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E277" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -8095,8 +8902,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -8110,8 +8920,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -8125,8 +8938,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -8140,8 +8956,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -8155,8 +8974,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E282" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>564</v>
       </c>
@@ -8170,8 +8992,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -8185,8 +9010,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -8200,8 +9028,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -8215,8 +9046,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>572</v>
       </c>
@@ -8230,8 +9064,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -8245,8 +9082,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>576</v>
       </c>
@@ -8260,8 +9100,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>578</v>
       </c>
@@ -8275,8 +9118,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E290" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>580</v>
       </c>
@@ -8290,8 +9136,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>582</v>
       </c>
@@ -8305,8 +9154,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>584</v>
       </c>
@@ -8320,8 +9172,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>586</v>
       </c>
@@ -8335,8 +9190,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>588</v>
       </c>
@@ -8350,8 +9208,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>590</v>
       </c>
@@ -8365,8 +9226,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E296" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>592</v>
       </c>
@@ -8380,8 +9244,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E297" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>594</v>
       </c>
@@ -8395,8 +9262,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>595</v>
       </c>
@@ -8410,8 +9280,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>597</v>
       </c>
@@ -8425,8 +9298,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E300" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>599</v>
       </c>
@@ -8440,8 +9316,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>601</v>
       </c>
@@ -8455,8 +9334,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E302" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>603</v>
       </c>
@@ -8470,8 +9352,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>605</v>
       </c>
@@ -8485,8 +9370,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>607</v>
       </c>
@@ -8500,8 +9388,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>609</v>
       </c>
@@ -8515,8 +9406,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>611</v>
       </c>
@@ -8530,8 +9424,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E307" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>613</v>
       </c>
@@ -8545,8 +9442,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>615</v>
       </c>
@@ -8560,8 +9460,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>617</v>
       </c>
@@ -8575,8 +9478,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E310" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>619</v>
       </c>
@@ -8590,8 +9496,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E311" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>621</v>
       </c>
@@ -8605,8 +9514,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E312" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>623</v>
       </c>
@@ -8620,8 +9532,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E313" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>625</v>
       </c>
@@ -8635,8 +9550,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E314" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>627</v>
       </c>
@@ -8650,8 +9568,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>629</v>
       </c>
@@ -8665,8 +9586,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E316" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>631</v>
       </c>
@@ -8680,8 +9604,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>633</v>
       </c>
@@ -8695,8 +9622,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E318" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>635</v>
       </c>
@@ -8710,8 +9640,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E319" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>637</v>
       </c>
@@ -8725,8 +9658,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>639</v>
       </c>
@@ -8740,8 +9676,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>641</v>
       </c>
@@ -8755,8 +9694,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E322" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>643</v>
       </c>
@@ -8770,8 +9712,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E323" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>645</v>
       </c>
@@ -8785,8 +9730,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>647</v>
       </c>
@@ -8800,8 +9748,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>649</v>
       </c>
@@ -8815,8 +9766,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E326" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>651</v>
       </c>
@@ -8830,8 +9784,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>653</v>
       </c>
@@ -8845,8 +9802,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>655</v>
       </c>
@@ -8860,8 +9820,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E329" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>657</v>
       </c>
@@ -8875,8 +9838,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>659</v>
       </c>
@@ -8890,8 +9856,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E331" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>661</v>
       </c>
@@ -8905,8 +9874,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>663</v>
       </c>
@@ -8920,8 +9892,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E333" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>665</v>
       </c>
@@ -8935,8 +9910,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>667</v>
       </c>
@@ -8950,8 +9928,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E335" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>669</v>
       </c>
@@ -8965,8 +9946,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E336" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>671</v>
       </c>
@@ -8980,8 +9964,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>673</v>
       </c>
@@ -8995,8 +9982,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E338" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>675</v>
       </c>
@@ -9010,8 +10000,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>677</v>
       </c>
@@ -9025,8 +10018,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>679</v>
       </c>
@@ -9040,8 +10036,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>680</v>
       </c>
@@ -9055,8 +10054,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E342" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>682</v>
       </c>
@@ -9070,8 +10072,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E343" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>684</v>
       </c>
@@ -9085,8 +10090,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>686</v>
       </c>
@@ -9100,8 +10108,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>688</v>
       </c>
@@ -9115,8 +10126,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>690</v>
       </c>
@@ -9130,8 +10144,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E347" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>692</v>
       </c>
@@ -9145,8 +10162,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E348" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>694</v>
       </c>
@@ -9160,8 +10180,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E349" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>696</v>
       </c>
@@ -9175,8 +10198,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>698</v>
       </c>
@@ -9190,8 +10216,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>700</v>
       </c>
@@ -9205,8 +10234,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>702</v>
       </c>
@@ -9220,8 +10252,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>704</v>
       </c>
@@ -9235,8 +10270,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>706</v>
       </c>
@@ -9250,8 +10288,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -9265,8 +10306,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E356" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>709</v>
       </c>
@@ -9280,8 +10324,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E357" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>711</v>
       </c>
@@ -9295,8 +10342,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>713</v>
       </c>
@@ -9310,8 +10360,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>715</v>
       </c>
@@ -9325,8 +10378,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E360" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>717</v>
       </c>
@@ -9340,8 +10396,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E361" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -9355,8 +10414,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E362" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>721</v>
       </c>
@@ -9370,8 +10432,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>723</v>
       </c>
@@ -9385,8 +10450,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E364" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>725</v>
       </c>
@@ -9400,8 +10468,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E365" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>727</v>
       </c>
@@ -9415,8 +10486,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E366" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>729</v>
       </c>
@@ -9430,8 +10504,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>731</v>
       </c>
@@ -9445,8 +10522,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>733</v>
       </c>
@@ -9460,8 +10540,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E369" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>735</v>
       </c>
@@ -9475,8 +10558,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>737</v>
       </c>
@@ -9490,8 +10576,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E371" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>739</v>
       </c>
@@ -9505,8 +10594,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>741</v>
       </c>
@@ -9520,8 +10612,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E373" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>743</v>
       </c>
@@ -9535,8 +10630,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E374" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>745</v>
       </c>
@@ -9550,8 +10648,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E375" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>747</v>
       </c>
@@ -9565,8 +10666,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E376" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>749</v>
       </c>
@@ -9580,8 +10684,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>751</v>
       </c>
@@ -9595,8 +10702,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>753</v>
       </c>
@@ -9610,8 +10720,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E379" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>755</v>
       </c>
@@ -9625,8 +10738,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E380" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>757</v>
       </c>
@@ -9640,8 +10756,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E381" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>759</v>
       </c>
@@ -9655,8 +10774,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E382" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>761</v>
       </c>
@@ -9670,8 +10792,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E383" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>763</v>
       </c>
@@ -9685,8 +10810,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E384" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>765</v>
       </c>
@@ -9700,8 +10828,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -9715,8 +10846,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E386" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -9730,8 +10864,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E387" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>771</v>
       </c>
@@ -9745,8 +10882,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E388" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>773</v>
       </c>
@@ -9760,8 +10900,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E389" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>775</v>
       </c>
@@ -9775,8 +10918,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E390" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>777</v>
       </c>
@@ -9790,8 +10936,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E391" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A392" t="s">
         <v>779</v>
       </c>
@@ -9805,8 +10954,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E392" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -9820,8 +10972,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E393" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>783</v>
       </c>
@@ -9835,8 +10990,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E394" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>785</v>
       </c>
@@ -9850,8 +11008,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E395" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>787</v>
       </c>
@@ -9865,8 +11026,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E396" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>789</v>
       </c>
@@ -9880,8 +11044,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E397" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>791</v>
       </c>
@@ -9895,8 +11062,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E398" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>793</v>
       </c>
@@ -9910,8 +11080,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E399" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>795</v>
       </c>
@@ -9925,8 +11098,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E400" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -9940,8 +11116,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E401" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -9955,8 +11134,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E402" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -9970,8 +11152,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E403" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -9985,8 +11170,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E404" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -10000,8 +11188,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E405" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -10015,8 +11206,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E406" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -10030,8 +11224,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E407" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>811</v>
       </c>
@@ -10045,8 +11242,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E408" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>813</v>
       </c>
@@ -10060,8 +11260,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E409" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -10075,8 +11278,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E410" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>817</v>
       </c>
@@ -10090,8 +11296,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E411" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>819</v>
       </c>
@@ -10105,8 +11314,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E412" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>821</v>
       </c>
@@ -10120,8 +11332,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E413" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>823</v>
       </c>
@@ -10135,8 +11350,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E414" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>825</v>
       </c>
@@ -10150,8 +11368,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E415" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>827</v>
       </c>
@@ -10165,8 +11386,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E416" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>829</v>
       </c>
@@ -10180,8 +11404,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E417" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>831</v>
       </c>
@@ -10195,8 +11422,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E418" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>833</v>
       </c>
@@ -10210,8 +11440,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E419" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>835</v>
       </c>
@@ -10225,8 +11458,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E420" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>837</v>
       </c>
@@ -10240,8 +11476,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E421" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>839</v>
       </c>
@@ -10255,8 +11494,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E422" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>841</v>
       </c>
@@ -10270,8 +11512,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E423" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>843</v>
       </c>
@@ -10285,8 +11530,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E424" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>845</v>
       </c>
@@ -10300,8 +11548,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E425" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>847</v>
       </c>
@@ -10315,8 +11566,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E426" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>849</v>
       </c>
@@ -10330,8 +11584,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E427" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>851</v>
       </c>
@@ -10345,8 +11602,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E428" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>853</v>
       </c>
@@ -10360,8 +11620,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E429" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
         <v>855</v>
       </c>
@@ -10375,8 +11638,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E430" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A431" t="s">
         <v>856</v>
       </c>
@@ -10390,8 +11656,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E431" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A432" t="s">
         <v>858</v>
       </c>
@@ -10405,8 +11674,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E432" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A433" t="s">
         <v>860</v>
       </c>
@@ -10420,8 +11692,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E433" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
         <v>862</v>
       </c>
@@ -10435,8 +11710,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E434" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A435" t="s">
         <v>864</v>
       </c>
@@ -10450,8 +11728,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E435" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A436" t="s">
         <v>866</v>
       </c>
@@ -10465,8 +11746,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E436" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A437" t="s">
         <v>868</v>
       </c>
@@ -10480,8 +11764,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E437" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -10495,8 +11782,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E438" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A439" t="s">
         <v>872</v>
       </c>
@@ -10510,8 +11800,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E439" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A440" t="s">
         <v>874</v>
       </c>
@@ -10525,8 +11818,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E440" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A441" t="s">
         <v>876</v>
       </c>
@@ -10540,8 +11836,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E441" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>878</v>
       </c>
@@ -10555,8 +11854,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E442" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>880</v>
       </c>
@@ -10570,8 +11872,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E443" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>882</v>
       </c>
@@ -10585,8 +11890,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E444" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>884</v>
       </c>
@@ -10600,8 +11908,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E445" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>886</v>
       </c>
@@ -10615,8 +11926,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E446" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>888</v>
       </c>
@@ -10630,8 +11944,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E447" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>890</v>
       </c>
@@ -10645,8 +11962,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E448" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>892</v>
       </c>
@@ -10660,8 +11980,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E449" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>894</v>
       </c>
@@ -10675,8 +11998,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E450" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>896</v>
       </c>
@@ -10690,8 +12016,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E451" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>898</v>
       </c>
@@ -10705,8 +12034,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E452" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>900</v>
       </c>
@@ -10720,8 +12052,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E453" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>902</v>
       </c>
@@ -10735,8 +12070,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E454" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>904</v>
       </c>
@@ -10750,8 +12088,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E455" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>906</v>
       </c>
@@ -10765,8 +12106,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E456" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
         <v>908</v>
       </c>
@@ -10780,8 +12124,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E457" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A458" t="s">
         <v>910</v>
       </c>
@@ -10795,8 +12142,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E458" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A459" t="s">
         <v>912</v>
       </c>
@@ -10810,8 +12160,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E459" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>914</v>
       </c>
@@ -10825,8 +12178,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E460" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>916</v>
       </c>
@@ -10840,8 +12196,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E461" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>918</v>
       </c>
@@ -10855,8 +12214,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E462" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>920</v>
       </c>
@@ -10870,8 +12232,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E463" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>922</v>
       </c>
@@ -10885,8 +12250,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E464" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>924</v>
       </c>
@@ -10900,8 +12268,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E465" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>926</v>
       </c>
@@ -10915,8 +12286,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E466" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
         <v>928</v>
       </c>
@@ -10930,8 +12304,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E467" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A468" t="s">
         <v>930</v>
       </c>
@@ -10945,8 +12322,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E468" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A469" t="s">
         <v>932</v>
       </c>
@@ -10960,8 +12340,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E469" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A470" t="s">
         <v>934</v>
       </c>
@@ -10975,8 +12358,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E470" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A471" t="s">
         <v>936</v>
       </c>
@@ -10990,8 +12376,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E471" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A472" t="s">
         <v>938</v>
       </c>
@@ -11005,8 +12394,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E472" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A473" t="s">
         <v>940</v>
       </c>
@@ -11020,8 +12412,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E473" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A474" t="s">
         <v>942</v>
       </c>
@@ -11035,8 +12430,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E474" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A475" t="s">
         <v>944</v>
       </c>
@@ -11050,8 +12448,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E475" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A476" t="s">
         <v>946</v>
       </c>
@@ -11065,8 +12466,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E476" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A477" t="s">
         <v>948</v>
       </c>
@@ -11080,8 +12484,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E477" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>950</v>
       </c>
@@ -11095,8 +12502,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E478" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
         <v>952</v>
       </c>
@@ -11110,8 +12520,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E479" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A480" t="s">
         <v>954</v>
       </c>
@@ -11125,8 +12538,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E480" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A481" t="s">
         <v>956</v>
       </c>
@@ -11140,8 +12556,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E481" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A482" t="s">
         <v>958</v>
       </c>
@@ -11155,8 +12574,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E482" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A483" t="s">
         <v>960</v>
       </c>
@@ -11170,8 +12592,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E483" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A484" t="s">
         <v>962</v>
       </c>
@@ -11185,8 +12610,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E484" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A485" t="s">
         <v>964</v>
       </c>
@@ -11200,8 +12628,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E485" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A486" t="s">
         <v>966</v>
       </c>
@@ -11215,8 +12646,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E486" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A487" t="s">
         <v>968</v>
       </c>
@@ -11230,8 +12664,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E487" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
         <v>970</v>
       </c>
@@ -11245,8 +12682,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E488" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A489" t="s">
         <v>972</v>
       </c>
@@ -11260,8 +12700,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E489" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A490" t="s">
         <v>974</v>
       </c>
@@ -11275,8 +12718,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E490" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A491" t="s">
         <v>976</v>
       </c>
@@ -11290,8 +12736,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E491" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A492" t="s">
         <v>978</v>
       </c>
@@ -11305,8 +12754,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E492" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A493" t="s">
         <v>980</v>
       </c>
@@ -11320,8 +12772,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E493" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A494" t="s">
         <v>982</v>
       </c>
@@ -11335,8 +12790,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E494" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
         <v>984</v>
       </c>
@@ -11350,8 +12808,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E495" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A496" t="s">
         <v>986</v>
       </c>
@@ -11365,8 +12826,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E496" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>988</v>
       </c>
@@ -11380,8 +12844,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E497" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>990</v>
       </c>
@@ -11395,8 +12862,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E498" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>992</v>
       </c>
@@ -11410,8 +12880,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E499" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>994</v>
       </c>
@@ -11425,8 +12898,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E500" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
         <v>996</v>
       </c>
@@ -11440,8 +12916,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E501" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A502" t="s">
         <v>998</v>
       </c>
@@ -11455,8 +12934,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E502" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A503" t="s">
         <v>1000</v>
       </c>
@@ -11470,8 +12952,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E503" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A504" t="s">
         <v>1002</v>
       </c>
@@ -11485,8 +12970,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E504" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A505" t="s">
         <v>1004</v>
       </c>
@@ -11500,8 +12988,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E505" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A506" t="s">
         <v>1006</v>
       </c>
@@ -11515,8 +13006,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E506" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A507" t="s">
         <v>1008</v>
       </c>
@@ -11530,8 +13024,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E507" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A508" t="s">
         <v>1010</v>
       </c>
@@ -11545,8 +13042,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E508" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A509" t="s">
         <v>1012</v>
       </c>
@@ -11560,8 +13060,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E509" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A510" t="s">
         <v>1014</v>
       </c>
@@ -11575,8 +13078,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E510" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A511" t="s">
         <v>1016</v>
       </c>
@@ -11590,8 +13096,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E511" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A512" t="s">
         <v>1018</v>
       </c>
@@ -11605,8 +13114,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E512" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A513" t="s">
         <v>1020</v>
       </c>
@@ -11620,8 +13132,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E513" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>1022</v>
       </c>
@@ -11635,8 +13150,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E514" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
         <v>1024</v>
       </c>
@@ -11650,8 +13168,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E515" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A516" t="s">
         <v>1026</v>
       </c>
@@ -11665,8 +13186,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E516" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
         <v>1028</v>
       </c>
@@ -11680,8 +13204,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E517" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A518" t="s">
         <v>1030</v>
       </c>
@@ -11695,8 +13222,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E518" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>1032</v>
       </c>
@@ -11710,8 +13240,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E519" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A520" t="s">
         <v>1034</v>
       </c>
@@ -11725,8 +13258,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E520" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A521" t="s">
         <v>1036</v>
       </c>
@@ -11740,8 +13276,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E521" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A522" t="s">
         <v>1038</v>
       </c>
@@ -11755,8 +13294,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E522" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A523" t="s">
         <v>1040</v>
       </c>
@@ -11770,8 +13312,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E523" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A524" t="s">
         <v>1042</v>
       </c>
@@ -11785,8 +13330,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E524" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A525" t="s">
         <v>1044</v>
       </c>
@@ -11800,8 +13348,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E525" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A526" t="s">
         <v>1046</v>
       </c>
@@ -11815,8 +13366,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E526" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A527" t="s">
         <v>1048</v>
       </c>
@@ -11830,8 +13384,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E527" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A528" t="s">
         <v>1050</v>
       </c>
@@ -11845,8 +13402,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E528" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A529" t="s">
         <v>1052</v>
       </c>
@@ -11860,8 +13420,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E529" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A530" t="s">
         <v>1054</v>
       </c>
@@ -11875,8 +13438,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E530" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A531" t="s">
         <v>1056</v>
       </c>
@@ -11890,8 +13456,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E531" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A532" t="s">
         <v>1058</v>
       </c>
@@ -11905,8 +13474,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E532" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>1060</v>
       </c>
@@ -11920,8 +13492,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E533" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>1062</v>
       </c>
@@ -11935,8 +13510,11 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E534" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>1064</v>
       </c>
@@ -11950,55 +13528,67 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E535" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>1066</v>
       </c>
       <c r="B536" t="s">
+        <v>1</v>
+      </c>
+      <c r="C536" t="s">
         <v>1067</v>
       </c>
-      <c r="C536" t="s">
+      <c r="D536" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A537" t="s">
         <v>1068</v>
       </c>
-      <c r="D536" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A537" t="s">
+      <c r="B537" t="s">
+        <v>1</v>
+      </c>
+      <c r="C537" t="s">
         <v>1069</v>
       </c>
-      <c r="B537" t="s">
+      <c r="D537" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A538" t="s">
         <v>1070</v>
       </c>
-      <c r="C537" t="s">
+      <c r="B538" t="s">
+        <v>6</v>
+      </c>
+      <c r="C538" t="s">
         <v>1071</v>
       </c>
-      <c r="D537" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A538" t="s">
+      <c r="D538" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E538" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A539" t="s">
         <v>1072</v>
-      </c>
-      <c r="B538" t="s">
-        <v>6</v>
-      </c>
-      <c r="C538" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D538" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A539" t="s">
-        <v>1074</v>
       </c>
       <c r="B539" t="s">
         <v>6</v>
@@ -12010,515 +13600,620 @@
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>I</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E539" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B540" t="s">
+        <v>6</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D540" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E540" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A541" t="s">
         <v>1075</v>
       </c>
-      <c r="B540" t="s">
-        <v>6</v>
-      </c>
-      <c r="C540" t="s">
+      <c r="B541" t="s">
+        <v>6</v>
+      </c>
+      <c r="C541" t="s">
         <v>1076</v>
       </c>
-      <c r="D540" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A541" t="s">
+      <c r="D541" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E541" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A542" t="s">
         <v>1077</v>
       </c>
-      <c r="B541" t="s">
-        <v>6</v>
-      </c>
-      <c r="C541" t="s">
+      <c r="B542" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542" t="s">
         <v>1078</v>
       </c>
-      <c r="D541" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A542" t="s">
+      <c r="D542" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E542" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A543" t="s">
         <v>1079</v>
       </c>
-      <c r="B542" t="s">
-        <v>6</v>
-      </c>
-      <c r="C542" t="s">
+      <c r="B543" t="s">
+        <v>6</v>
+      </c>
+      <c r="C543" t="s">
         <v>1080</v>
       </c>
-      <c r="D542" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A543" t="s">
+      <c r="D543" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E543" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A544" t="s">
         <v>1081</v>
       </c>
-      <c r="B543" t="s">
-        <v>6</v>
-      </c>
-      <c r="C543" t="s">
+      <c r="B544" t="s">
+        <v>1</v>
+      </c>
+      <c r="C544" t="s">
         <v>1082</v>
       </c>
-      <c r="D543" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A544" t="s">
+      <c r="D544" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A545" t="s">
         <v>1083</v>
       </c>
-      <c r="B544" t="s">
-        <v>1</v>
-      </c>
-      <c r="C544" t="s">
+      <c r="B545" t="s">
+        <v>1</v>
+      </c>
+      <c r="C545" t="s">
         <v>1084</v>
       </c>
-      <c r="D544" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A545" t="s">
+      <c r="D545" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A546" t="s">
         <v>1085</v>
       </c>
-      <c r="B545" t="s">
-        <v>1</v>
-      </c>
-      <c r="C545" t="s">
+      <c r="B546" t="s">
+        <v>1</v>
+      </c>
+      <c r="C546" t="s">
         <v>1086</v>
       </c>
-      <c r="D545" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A546" t="s">
+      <c r="D546" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A547" t="s">
         <v>1087</v>
       </c>
-      <c r="B546" t="s">
-        <v>1</v>
-      </c>
-      <c r="C546" t="s">
+      <c r="B547" t="s">
+        <v>1</v>
+      </c>
+      <c r="C547" t="s">
         <v>1088</v>
       </c>
-      <c r="D546" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A547" t="s">
+      <c r="D547" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A548" t="s">
         <v>1089</v>
       </c>
-      <c r="B547" t="s">
-        <v>1</v>
-      </c>
-      <c r="C547" t="s">
+      <c r="B548" t="s">
+        <v>6</v>
+      </c>
+      <c r="C548" t="s">
         <v>1090</v>
       </c>
-      <c r="D547" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A548" t="s">
+      <c r="D548" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E548" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A549" t="s">
         <v>1091</v>
       </c>
-      <c r="B548" t="s">
-        <v>6</v>
-      </c>
-      <c r="C548" t="s">
+      <c r="B549" t="s">
+        <v>6</v>
+      </c>
+      <c r="C549" t="s">
         <v>1092</v>
       </c>
-      <c r="D548" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A549" t="s">
+      <c r="D549" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E549" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A550" t="s">
         <v>1093</v>
       </c>
-      <c r="B549" t="s">
-        <v>6</v>
-      </c>
-      <c r="C549" t="s">
+      <c r="B550" t="s">
+        <v>1</v>
+      </c>
+      <c r="C550" t="s">
         <v>1094</v>
       </c>
-      <c r="D549" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A550" t="s">
+      <c r="D550" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A551" t="s">
         <v>1095</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B551" t="s">
+        <v>1</v>
+      </c>
+      <c r="C551" t="s">
         <v>1096</v>
       </c>
-      <c r="C550" t="s">
+      <c r="D551" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A552" t="s">
         <v>1097</v>
       </c>
-      <c r="D550" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A551" t="s">
+      <c r="B552" t="s">
+        <v>6</v>
+      </c>
+      <c r="C552" t="s">
         <v>1098</v>
       </c>
-      <c r="B551" t="s">
-        <v>1</v>
-      </c>
-      <c r="C551" t="s">
+      <c r="D552" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E552" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A553" t="s">
         <v>1099</v>
       </c>
-      <c r="D551" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A552" t="s">
+      <c r="B553" t="s">
+        <v>6</v>
+      </c>
+      <c r="C553" t="s">
         <v>1100</v>
       </c>
-      <c r="B552" t="s">
-        <v>6</v>
-      </c>
-      <c r="C552" t="s">
+      <c r="D553" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E553" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A554" t="s">
         <v>1101</v>
       </c>
-      <c r="D552" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A553" t="s">
+      <c r="B554" t="s">
+        <v>1</v>
+      </c>
+      <c r="C554" t="s">
         <v>1102</v>
       </c>
-      <c r="B553" t="s">
-        <v>6</v>
-      </c>
-      <c r="C553" t="s">
+      <c r="D554" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A555" t="s">
         <v>1103</v>
       </c>
-      <c r="D553" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A554" t="s">
+      <c r="B555" t="s">
+        <v>1</v>
+      </c>
+      <c r="C555" t="s">
         <v>1104</v>
       </c>
-      <c r="B554" t="s">
+      <c r="D555" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A556" t="s">
         <v>1105</v>
       </c>
-      <c r="C554" t="s">
+      <c r="B556" t="s">
+        <v>6</v>
+      </c>
+      <c r="C556" t="s">
         <v>1106</v>
       </c>
-      <c r="D554" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A555" t="s">
+      <c r="D556" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E556" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A557" t="s">
         <v>1107</v>
       </c>
-      <c r="B555" t="s">
-        <v>1</v>
-      </c>
-      <c r="C555" t="s">
+      <c r="B557" t="s">
+        <v>6</v>
+      </c>
+      <c r="C557" t="s">
         <v>1108</v>
       </c>
-      <c r="D555" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A556" t="s">
+      <c r="D557" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E557" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A558" t="s">
         <v>1109</v>
       </c>
-      <c r="B556" t="s">
-        <v>6</v>
-      </c>
-      <c r="C556" t="s">
+      <c r="B558" t="s">
+        <v>1</v>
+      </c>
+      <c r="C558" t="s">
         <v>1110</v>
       </c>
-      <c r="D556" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A557" t="s">
+      <c r="D558" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A559" t="s">
         <v>1111</v>
       </c>
-      <c r="B557" t="s">
-        <v>6</v>
-      </c>
-      <c r="C557" t="s">
+      <c r="B559" t="s">
+        <v>6</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D559" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E559" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A560" t="s">
         <v>1112</v>
       </c>
-      <c r="D557" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A558" t="s">
+      <c r="B560" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s">
         <v>1113</v>
       </c>
-      <c r="B558" t="s">
+      <c r="D560" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E560" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A561" t="s">
         <v>1114</v>
       </c>
-      <c r="C558" t="s">
+      <c r="B561" t="s">
+        <v>1</v>
+      </c>
+      <c r="C561" t="s">
         <v>1115</v>
       </c>
-      <c r="D558" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A559" t="s">
+      <c r="D561" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A562" t="s">
         <v>1116</v>
       </c>
-      <c r="B559" t="s">
-        <v>6</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D559" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A560" t="s">
+      <c r="B562" t="s">
+        <v>6</v>
+      </c>
+      <c r="C562" t="s">
         <v>1117</v>
       </c>
-      <c r="B560" t="s">
-        <v>6</v>
-      </c>
-      <c r="C560" t="s">
+      <c r="D562" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E562" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A563" t="s">
         <v>1118</v>
       </c>
-      <c r="D560" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A561" t="s">
+      <c r="B563" t="s">
+        <v>6</v>
+      </c>
+      <c r="C563" t="s">
         <v>1119</v>
       </c>
-      <c r="B561" t="s">
+      <c r="D563" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E563" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A564" t="s">
         <v>1120</v>
       </c>
-      <c r="C561" t="s">
+      <c r="B564" t="s">
+        <v>6</v>
+      </c>
+      <c r="C564" t="s">
         <v>1121</v>
       </c>
-      <c r="D561" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A562" t="s">
+      <c r="D564" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E564" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A565" t="s">
         <v>1122</v>
       </c>
-      <c r="B562" t="s">
-        <v>6</v>
-      </c>
-      <c r="C562" t="s">
+      <c r="B565" t="s">
+        <v>6</v>
+      </c>
+      <c r="C565" t="s">
         <v>1123</v>
       </c>
-      <c r="D562" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A563" t="s">
+      <c r="D565" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E565" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A566" t="s">
         <v>1124</v>
       </c>
-      <c r="B563" t="s">
-        <v>6</v>
-      </c>
-      <c r="C563" t="s">
+      <c r="B566" t="s">
+        <v>1</v>
+      </c>
+      <c r="C566" t="s">
         <v>1125</v>
       </c>
-      <c r="D563" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A564" t="s">
+      <c r="D566" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A567" t="s">
         <v>1126</v>
       </c>
-      <c r="B564" t="s">
-        <v>6</v>
-      </c>
-      <c r="C564" t="s">
+      <c r="B567" t="s">
+        <v>6</v>
+      </c>
+      <c r="C567" t="s">
         <v>1127</v>
       </c>
-      <c r="D564" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A565" t="s">
+      <c r="D567" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>I</v>
+      </c>
+      <c r="E567" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A568" t="s">
         <v>1128</v>
       </c>
-      <c r="B565" t="s">
-        <v>6</v>
-      </c>
-      <c r="C565" t="s">
+      <c r="B568" t="s">
+        <v>1</v>
+      </c>
+      <c r="C568" t="s">
         <v>1129</v>
       </c>
-      <c r="D565" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A566" t="s">
+      <c r="D568" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A569" t="s">
         <v>1130</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B569" t="s">
+        <v>1</v>
+      </c>
+      <c r="C569" t="s">
         <v>1131</v>
       </c>
-      <c r="C566" t="s">
+      <c r="D569" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A570" t="s">
         <v>1132</v>
       </c>
-      <c r="D566" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A567" t="s">
+      <c r="B570" t="s">
+        <v>1</v>
+      </c>
+      <c r="C570" t="s">
         <v>1133</v>
       </c>
-      <c r="B567" t="s">
-        <v>6</v>
-      </c>
-      <c r="C567" t="s">
+      <c r="D570" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A571" t="s">
         <v>1134</v>
       </c>
-      <c r="D567" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>I</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A568" t="s">
+      <c r="B571" t="s">
+        <v>1</v>
+      </c>
+      <c r="C571" t="s">
         <v>1135</v>
       </c>
-      <c r="B568" t="s">
-        <v>1</v>
-      </c>
-      <c r="C568" t="s">
+      <c r="D571" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A572" t="s">
         <v>1136</v>
       </c>
-      <c r="D568" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A569" t="s">
+      <c r="B572" t="s">
+        <v>1</v>
+      </c>
+      <c r="C572" t="s">
         <v>1137</v>
       </c>
-      <c r="B569" t="s">
-        <v>1</v>
-      </c>
-      <c r="C569" t="s">
+      <c r="D572" t="str">
+        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
+        <v>H</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A573" t="s">
         <v>1138</v>
       </c>
-      <c r="D569" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A570" t="s">
+      <c r="B573" t="s">
+        <v>1</v>
+      </c>
+      <c r="C573" t="s">
         <v>1139</v>
       </c>
-      <c r="B570" t="s">
-        <v>1</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D570" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A571" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D571" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A572" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D572" t="str">
-        <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
-        <v>H</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A573" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1148</v>
-      </c>
       <c r="D573" t="str">
         <f>LEFT(Hozzáfűzés1[[#This Row],[a]],1)</f>
         <v>H</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
